--- a/data/var_lexicon.xlsx
+++ b/data/var_lexicon.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="410">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -313,13 +313,22 @@
     <t xml:space="preserve">Serum ferritin</t>
   </si>
   <si>
-    <t xml:space="preserve">ferritin_sq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FT\u00B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serum ferritin, second order</t>
+    <t xml:space="preserve">log_ferritin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log FT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log serum ferritin,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log_ferritin_sq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log FT\u00B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log serum ferritin, second order</t>
   </si>
   <si>
     <t xml:space="preserve">FT_elv</t>
@@ -337,22 +346,16 @@
     <t xml:space="preserve">Transferrin saturation</t>
   </si>
   <si>
-    <t xml:space="preserve">TSAT_sq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TF-Sat\u00B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transferrin saturation, second order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSAT_red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reduced TF-Sat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Females: TF-Sat &lt; 15%, males: TF-Sat &lt; 20%</t>
+    <t xml:space="preserve">sqrt_TSAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sqrt TF-Sat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sqrt Transferrin saturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sqrt_TSAT_sq</t>
   </si>
   <si>
     <t xml:space="preserve">sTFR</t>
@@ -364,13 +367,22 @@
     <t xml:space="preserve">Serum soluble transferrin receptor</t>
   </si>
   <si>
-    <t xml:space="preserve">sTFR_sq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sTFR\u00B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serum soluble transferrin receptor, second order</t>
+    <t xml:space="preserve">log_sTFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log sTFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log Serum soluble transferrin receptor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log_sTFR_sq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log sTFR\u00B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log Serum soluble transferrin receptor, second order</t>
   </si>
   <si>
     <t xml:space="preserve">Hepcidin</t>
@@ -382,13 +394,16 @@
     <t xml:space="preserve">Serum hepcidin</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepcidin_sq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hepcidin\u00B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serum hepcidin, second order</t>
+    <t xml:space="preserve">sqrt_Hepcidin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sqrt Hepcidin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sqrt serum hepcidin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sqrt_Hepcidin_sq</t>
   </si>
   <si>
     <t xml:space="preserve">NTproBNP</t>
@@ -403,19 +418,7 @@
     <t xml:space="preserve">Serum N-terminal pro-brain natriuretic peptide</t>
   </si>
   <si>
-    <t xml:space="preserve">NtproBNP_sq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NT-proBNP\u00B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serum N-terminal pro-brain natriuretic peptide, second order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NtproBNP_elv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elevated NT-proBNP</t>
+    <t xml:space="preserve">NTproBNP_class</t>
   </si>
   <si>
     <t xml:space="preserve">DDimer</t>
@@ -427,7 +430,7 @@
     <t xml:space="preserve">Serum D-dimer</t>
   </si>
   <si>
-    <t xml:space="preserve">DDimer_sq</t>
+    <t xml:space="preserve">DDimer_class</t>
   </si>
   <si>
     <t xml:space="preserve">D-dimer\u00B2</t>
@@ -436,31 +439,13 @@
     <t xml:space="preserve">Serum D-dimer, second order</t>
   </si>
   <si>
-    <t xml:space="preserve">Ddimer_elv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elevated D-dimer</t>
-  </si>
-  <si>
     <t xml:space="preserve">CRP</t>
   </si>
   <si>
     <t xml:space="preserve">Serum C-reactive protein</t>
   </si>
   <si>
-    <t xml:space="preserve">CRP_sq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRP\u00B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serum C-reactive protein, second order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRP_elv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elevated CRP</t>
+    <t xml:space="preserve">CRP_class</t>
   </si>
   <si>
     <t xml:space="preserve">PCT</t>
@@ -493,13 +478,7 @@
     <t xml:space="preserve">Blood glycated hamoglobin</t>
   </si>
   <si>
-    <t xml:space="preserve">HbA1c_sq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HbA1c\u00B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blood glycated hamoglobin, second order</t>
+    <t xml:space="preserve">HbA1c_class</t>
   </si>
   <si>
     <t xml:space="preserve">HbA1c_elv</t>
@@ -532,16 +511,7 @@
     <t xml:space="preserve">Number of comorbidities</t>
   </si>
   <si>
-    <t xml:space="preserve">no_comorb_sq</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># comorbidities\u00B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Number comorbidities)\u00B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of comorbidities, second order</t>
+    <t xml:space="preserve">no_comorb_class</t>
   </si>
   <si>
     <t xml:space="preserve">comorb_present</t>
@@ -553,10 +523,10 @@
     <t xml:space="preserve">cardiovascular_comorb</t>
   </si>
   <si>
-    <t xml:space="preserve">CVD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cardiovascular disease</t>
+    <t xml:space="preserve">CVD, comorbidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardiovascular comorbidity</t>
   </si>
   <si>
     <t xml:space="preserve">hypertension_comorb</t>
@@ -565,10 +535,13 @@
     <t xml:space="preserve">Hypertension</t>
   </si>
   <si>
+    <t xml:space="preserve">Hypertension, comorbidity</t>
+  </si>
+  <si>
     <t xml:space="preserve">pulmonary_comorb</t>
   </si>
   <si>
-    <t xml:space="preserve">Pulmonary disease</t>
+    <t xml:space="preserve">Pulmonary comorbidity</t>
   </si>
   <si>
     <t xml:space="preserve">copd_comorb</t>
@@ -577,6 +550,9 @@
     <t xml:space="preserve">COPD</t>
   </si>
   <si>
+    <t xml:space="preserve">COPD, comorbidity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chronic obstructive pulmonary disease</t>
   </si>
   <si>
@@ -586,6 +562,9 @@
     <t xml:space="preserve">Asthma</t>
   </si>
   <si>
+    <t xml:space="preserve">Asthma, comorbidity</t>
+  </si>
+  <si>
     <t xml:space="preserve">intenst_lung_comorb</t>
   </si>
   <si>
@@ -598,7 +577,7 @@
     <t xml:space="preserve">respi_comorb</t>
   </si>
   <si>
-    <t xml:space="preserve">Respiratory disease</t>
+    <t xml:space="preserve">Respiratory comorbidity</t>
   </si>
   <si>
     <t xml:space="preserve">Respiratory disease: asthma, chronic obstructive pulmonary disease, interstitial lung disease or other lung disorder</t>
@@ -607,6 +586,9 @@
     <t xml:space="preserve">endometabolic_comorb</t>
   </si>
   <si>
+    <t xml:space="preserve">Metabolic comorbidity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Metabolic disease</t>
   </si>
   <si>
@@ -619,7 +601,10 @@
     <t xml:space="preserve">diabetes_comorb</t>
   </si>
   <si>
-    <t xml:space="preserve">Diabetes</t>
+    <t xml:space="preserve">Diabetes, comorditity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type II diabetes, comorbidity</t>
   </si>
   <si>
     <t xml:space="preserve">Type II diabetes</t>
@@ -628,7 +613,10 @@
     <t xml:space="preserve">ckd_comorb</t>
   </si>
   <si>
-    <t xml:space="preserve">CKD</t>
+    <t xml:space="preserve">CKD, comorbidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chronic kidney disease, comorbidity</t>
   </si>
   <si>
     <t xml:space="preserve">Chronic kidney disease</t>
@@ -637,7 +625,10 @@
     <t xml:space="preserve">gastro_comorb</t>
   </si>
   <si>
-    <t xml:space="preserve">GID</t>
+    <t xml:space="preserve">GID, comorbidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gastrointestinal comorbidity</t>
   </si>
   <si>
     <t xml:space="preserve">Gastrointestinal disease</t>
@@ -652,12 +643,18 @@
     <t xml:space="preserve">malingancy_comorb</t>
   </si>
   <si>
+    <t xml:space="preserve">Malignancy, comorbidity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Malignancy</t>
   </si>
   <si>
     <t xml:space="preserve">immdef_comorb</t>
   </si>
   <si>
+    <t xml:space="preserve">Immune deficiency, comorbidity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Immune deficiency</t>
   </si>
   <si>
@@ -685,7 +682,7 @@
     <t xml:space="preserve">sympt_present</t>
   </si>
   <si>
-    <t xml:space="preserve">Symptoms present</t>
+    <t xml:space="preserve">PSS present</t>
   </si>
   <si>
     <t xml:space="preserve">Symptoms present at the follow-up visit</t>
@@ -694,25 +691,16 @@
     <t xml:space="preserve">sympt_number</t>
   </si>
   <si>
-    <t xml:space="preserve"># symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of symptoms</t>
+    <t xml:space="preserve"># PSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of PSS</t>
   </si>
   <si>
     <t xml:space="preserve">Number of symptoms at the follow-up visit</t>
   </si>
   <si>
-    <t xml:space="preserve">sympt_number_sq</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># symptoms\u00B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Number of symptoms)\u00B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of symptoms at the follow-up visit, second order</t>
+    <t xml:space="preserve">sympt_number_class</t>
   </si>
   <si>
     <t xml:space="preserve">sleep_sympt</t>
@@ -817,13 +805,13 @@
     <t xml:space="preserve">Chest computer tomography severity score</t>
   </si>
   <si>
-    <t xml:space="preserve">ctss_sq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(CT severity score)\u00B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chest computer tomography severity score, second order</t>
+    <t xml:space="preserve">ctss_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CT lesion severity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chest computer tomography, lesion severity</t>
   </si>
   <si>
     <t xml:space="preserve">ct_severity_any</t>
@@ -1132,7 +1120,7 @@
     <t xml:space="preserve">ipq_total</t>
   </si>
   <si>
-    <t xml:space="preserve">Illness perception score (BIPQ sum)</t>
+    <t xml:space="preserve">Total IP score (BIPQ sum)</t>
   </si>
   <si>
     <t xml:space="preserve">Illness perception score, Illness Perception Questionnaire, item sum</t>
@@ -1141,61 +1129,61 @@
     <t xml:space="preserve">ipq_sub1</t>
   </si>
   <si>
-    <t xml:space="preserve">Illness concern, identity, time (BIPQ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illness concern, identity, time. Sum of BIPQ items 1, 2, 5, 6 and 8</t>
+    <t xml:space="preserve">Emotion/concern/consequences (BIPQ 1/2/5/6/8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illness emotion/concern/consequences (BIPQ 1/2/5/6/8)</t>
   </si>
   <si>
     <t xml:space="preserve">ipq_sub2</t>
   </si>
   <si>
-    <t xml:space="preserve">Illness control, coherence (BIPQ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illness control, coherence. Sum of BIPQ items 3, 4 and 7</t>
+    <t xml:space="preserve">Lacking control/coherence (BIPQ 3/4/7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illness control/coherence (BIPQ 3/4/7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sqrt_ipq_total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total IP score (BIPQ sum), square root</t>
   </si>
   <si>
     <t xml:space="preserve">sqrt_ipq_sub1</t>
   </si>
   <si>
-    <t xml:space="preserve">Illness concern, identity, time (BIPQ), square root</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illness concern, identity, time. Sum of BIPQ items 1, 2, 5, 6 and 8, square root</t>
+    <t xml:space="preserve">Emotion/concern/consequences (BIPQ 1/2/5/6/8), square root</t>
   </si>
   <si>
     <t xml:space="preserve">sqrt_ipq_sub2</t>
   </si>
   <si>
-    <t xml:space="preserve">Illness control, coherence (BIPQ), square root</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illness control, coherence. Sum of BIPQ items 3, 4 and 7, square root</t>
+    <t xml:space="preserve">Lacking control/coherence (BIPQ 3/4/7), square root</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log_ipq-total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total IP score (BIPQ sum), log</t>
   </si>
   <si>
     <t xml:space="preserve">log_ipq_sub1</t>
   </si>
   <si>
-    <t xml:space="preserve">Illness concern, identity, time (BIPQ), log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illness concern, identity, time. Sum of BIPQ items 1, 2, 5, 6 and 8, log</t>
+    <t xml:space="preserve">Emotion/concern/consequences (BIPQ 1/2/5/6/8), log</t>
   </si>
   <si>
     <t xml:space="preserve">log_ipq_sub2</t>
   </si>
   <si>
-    <t xml:space="preserve">Illness control, coherence (BIPQ), log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illness control, coherence. Sum of BIPQ items 3, 4 and 7, log</t>
+    <t xml:space="preserve">Lacking control/coherence (BIPQ 3/4/7), log</t>
   </si>
   <si>
     <t xml:space="preserve">ipq_q1</t>
   </si>
   <si>
-    <t xml:space="preserve">Illness perception, consequences (BIPQ Q1)</t>
+    <t xml:space="preserve">Consequences (BIPQ Q1)</t>
   </si>
   <si>
     <t xml:space="preserve">Illness perception, consequences item, Illness Perception Questionnaire Question 1</t>
@@ -1204,7 +1192,7 @@
     <t xml:space="preserve">ipq_q2</t>
   </si>
   <si>
-    <t xml:space="preserve">Illness perception, timeline (BIPQ Q2)</t>
+    <t xml:space="preserve">Timeline (BIPQ Q2)</t>
   </si>
   <si>
     <t xml:space="preserve">Illness perception, timeline item, Illness Perception Questionnaire Question 2</t>
@@ -1213,7 +1201,7 @@
     <t xml:space="preserve">ipq_q3</t>
   </si>
   <si>
-    <t xml:space="preserve">Illness perception, personal control (BIPQ Q3)</t>
+    <t xml:space="preserve">Lacking personal control (BIPQ Q3)</t>
   </si>
   <si>
     <t xml:space="preserve">Illness perception, personal control item, Illness Perception Questionnaire Question 3</t>
@@ -1222,7 +1210,7 @@
     <t xml:space="preserve">ipq_q4</t>
   </si>
   <si>
-    <t xml:space="preserve">Illness perception, treatment control (BIPQ Q4)</t>
+    <t xml:space="preserve">Lacking treatment control (BIPQ Q4)</t>
   </si>
   <si>
     <t xml:space="preserve">Illness perception, treatment control item, Illness Perception Questionnaire Question 4</t>
@@ -1231,7 +1219,7 @@
     <t xml:space="preserve">ipq_q5</t>
   </si>
   <si>
-    <t xml:space="preserve">Illness perception, identity (BIPQ Q5)</t>
+    <t xml:space="preserve">Identity (BIPQ Q5)</t>
   </si>
   <si>
     <t xml:space="preserve">Illness perception, identity item, Illness Perception Questionnaire Question 5</t>
@@ -1240,7 +1228,7 @@
     <t xml:space="preserve">ipq_q6</t>
   </si>
   <si>
-    <t xml:space="preserve">Illness perception, concern (BIPQ Q6)</t>
+    <t xml:space="preserve">Concern (BIPQ Q6)</t>
   </si>
   <si>
     <t xml:space="preserve">Illness perception, concern item, Illness Perception Questionnaire Question 6</t>
@@ -1249,7 +1237,7 @@
     <t xml:space="preserve">ipq_q7</t>
   </si>
   <si>
-    <t xml:space="preserve">Illness perception, coherence (BIPQ Q7)</t>
+    <t xml:space="preserve">Lacking coherence (BIPQ Q7)</t>
   </si>
   <si>
     <t xml:space="preserve">Illness perception, coherence, Illness Perception Questionnaire Question 7</t>
@@ -1258,7 +1246,7 @@
     <t xml:space="preserve">ipq_q8</t>
   </si>
   <si>
-    <t xml:space="preserve">Illness perception, emotional representation (BIPQ Q8)</t>
+    <t xml:space="preserve">Emotional representation (BIPQ Q8)</t>
   </si>
   <si>
     <t xml:space="preserve">Illness perception, emotional representation, Illness Perception Questionnaire Question 8</t>
@@ -1362,18 +1350,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A129" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B134" activeCellId="0" sqref="B134"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D71" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G83" activeCellId="0" sqref="G83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="56.35"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2176,10 +2164,10 @@
         <v>101</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>50</v>
@@ -2187,27 +2175,27 @@
       <c r="G40" s="0" t="s">
         <v>101</v>
       </c>
+      <c r="H40" s="0" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="H41" s="0" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2230,7 +2218,7 @@
       <c r="G42" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="0" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2245,7 +2233,7 @@
         <v>38</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>50</v>
@@ -2262,10 +2250,10 @@
         <v>111</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>15</v>
@@ -2274,156 +2262,159 @@
         <v>50</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="H45" s="0" t="s">
         <v>114</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="H48" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="H48" s="0" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C49" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G49" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>129</v>
+      <c r="H49" s="0" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>131</v>
+        <v>121</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>15</v>
@@ -2432,87 +2423,90 @@
         <v>50</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="H52" s="0" t="s">
-        <v>137</v>
+        <v>129</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>139</v>
+        <v>134</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>15</v>
@@ -2521,18 +2515,18 @@
         <v>50</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>38</v>
@@ -2544,15 +2538,18 @@
         <v>50</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>95</v>
@@ -2564,18 +2561,18 @@
         <v>50</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>38</v>
@@ -2587,19 +2584,19 @@
         <v>50</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>15</v>
@@ -2608,18 +2605,18 @@
         <v>50</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>38</v>
@@ -2631,15 +2628,15 @@
         <v>50</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>38</v>
@@ -2651,41 +2648,41 @@
         <v>50</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>38</v>
@@ -2697,15 +2694,15 @@
         <v>50</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>38</v>
@@ -2717,15 +2714,15 @@
         <v>50</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>38</v>
@@ -2737,18 +2734,18 @@
         <v>50</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>15</v>
@@ -2760,21 +2757,24 @@
         <v>0</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>171</v>
+        <v>161</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>38</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>11</v>
@@ -2783,18 +2783,18 @@
         <v>0</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>38</v>
@@ -2809,18 +2809,18 @@
         <v>0</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>38</v>
@@ -2835,18 +2835,18 @@
         <v>0</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>38</v>
@@ -2861,18 +2861,18 @@
         <v>0</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>38</v>
@@ -2887,18 +2887,18 @@
         <v>0</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>38</v>
@@ -2913,18 +2913,18 @@
         <v>0</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>38</v>
@@ -2939,18 +2939,18 @@
         <v>0</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>38</v>
@@ -2965,18 +2965,18 @@
         <v>0</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>38</v>
@@ -2991,18 +2991,18 @@
         <v>0</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>38</v>
@@ -3017,18 +3017,18 @@
         <v>0</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>38</v>
@@ -3043,18 +3043,18 @@
         <v>0</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>38</v>
@@ -3069,18 +3069,18 @@
         <v>0</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>38</v>
@@ -3095,18 +3095,18 @@
         <v>0</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>38</v>
@@ -3121,18 +3121,18 @@
         <v>0</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>38</v>
@@ -3147,15 +3147,15 @@
         <v>0</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>38</v>
@@ -3170,18 +3170,18 @@
         <v>0</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>38</v>
@@ -3196,121 +3196,124 @@
         <v>0</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B84" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="D84" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G84" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="D84" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="G84" s="0" t="s">
+      <c r="H84" s="0" t="s">
         <v>215</v>
-      </c>
-      <c r="H84" s="0" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G85" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="B85" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G85" s="0" t="s">
+      <c r="H85" s="0" t="s">
         <v>218</v>
-      </c>
-      <c r="H85" s="0" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B86" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="C86" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G86" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="H86" s="0" t="s">
         <v>221</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G86" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="H86" s="0" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B87" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="D87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G87" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G87" s="0" t="s">
+      <c r="H87" s="0" t="s">
         <v>225</v>
-      </c>
-      <c r="H87" s="0" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>228</v>
+        <v>223</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>38</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>38</v>
@@ -3322,18 +3325,18 @@
         <v>50</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>38</v>
@@ -3345,18 +3348,18 @@
         <v>50</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>38</v>
@@ -3368,18 +3371,18 @@
         <v>50</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>38</v>
@@ -3391,18 +3394,18 @@
         <v>50</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>38</v>
@@ -3414,18 +3417,18 @@
         <v>50</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>38</v>
@@ -3437,18 +3440,18 @@
         <v>50</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>38</v>
@@ -3460,18 +3463,18 @@
         <v>50</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>38</v>
@@ -3483,18 +3486,18 @@
         <v>50</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>38</v>
@@ -3506,18 +3509,18 @@
         <v>50</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>15</v>
@@ -3526,38 +3529,41 @@
         <v>50</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>266</v>
+        <v>262</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>38</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
+      </c>
+      <c r="H99" s="0" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>38</v>
@@ -3569,18 +3575,18 @@
         <v>50</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>38</v>
@@ -3592,64 +3598,67 @@
         <v>50</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F102" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>276</v>
+        <v>272</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>38</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F103" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>38</v>
@@ -3658,24 +3667,24 @@
         <v>10</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F104" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>38</v>
@@ -3684,131 +3693,131 @@
         <v>10</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F105" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F106" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F107" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F108" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F109" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>15</v>
@@ -3820,15 +3829,15 @@
         <v>4</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>38</v>
@@ -3837,61 +3846,64 @@
         <v>10</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F111" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F112" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>310</v>
+        <v>306</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>38</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F113" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>38</v>
@@ -3900,121 +3912,121 @@
         <v>15</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F114" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F115" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F116" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F117" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F118" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F119" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>38</v>
@@ -4023,21 +4035,21 @@
         <v>10</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F120" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>38</v>
@@ -4046,21 +4058,21 @@
         <v>10</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F121" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>38</v>
@@ -4069,21 +4081,21 @@
         <v>10</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F122" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C123" s="0" t="s">
         <v>38</v>
@@ -4092,21 +4104,21 @@
         <v>10</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F123" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>38</v>
@@ -4115,21 +4127,21 @@
         <v>10</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F124" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C125" s="0" t="s">
         <v>38</v>
@@ -4138,67 +4150,67 @@
         <v>10</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F125" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F126" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F127" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C128" s="0" t="s">
         <v>38</v>
@@ -4207,64 +4219,64 @@
         <v>10</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F128" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F129" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F130" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C131" s="0" t="s">
         <v>38</v>
@@ -4273,398 +4285,426 @@
         <v>10</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F131" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F132" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F133" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D134" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F134" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D135" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F135" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D136" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F136" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D137" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F137" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="H137" s="0" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D138" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F138" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="H138" s="0" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D139" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F139" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="H139" s="0" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D140" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F140" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="H140" s="0" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D141" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F141" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="H141" s="0" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D142" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F142" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="H142" s="0" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="D143" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F143" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D144" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F144" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="D145" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F145" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="D146" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F146" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D147" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F147" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="D148" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F148" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>413</v>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="D149" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E149" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="F149" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G149" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="H149" s="0" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E150" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="F150" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G150" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="H150" s="0" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
